--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2590444.17754167</v>
+        <v>2587899.584847385</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>109.9645463939861</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.296491434383</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.7184597712507</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="4">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>160.3815083376197</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404938</v>
@@ -914,7 +914,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760047</v>
+        <v>92.8578877276005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>110.9118495077894</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>35.08586258363258</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.330606300748</v>
+        <v>44.33060630074803</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>87.30710448560768</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304054</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.617008478529844</v>
+        <v>36.91115760589163</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>72.89889574100918</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>81.53022448449987</v>
+        <v>298.1850620697151</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1266,10 +1266,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.7103072037932</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.500240044167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>185.9158911817642</v>
+        <v>185.6279506608915</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>141.6930519056957</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>45.36631724422913</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>159.8103881934326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>5.421623586788372</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216687</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>10.63412424768209</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945936873</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>119.6760079449696</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>41.02686156550217</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="C2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="D2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="E2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="F2" t="n">
-        <v>126.0773463611704</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4328,52 +4328,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262253</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433434</v>
+        <v>590.2069027719631</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433434</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433434</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433434</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268586</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="X2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.7871177554784</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.7871177554784</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471.8309300165923</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>471.8309300165923</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198759</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198759</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198759</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198759</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198759</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198759</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y3" t="n">
-        <v>471.8309300165923</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4492,31 +4492,31 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
         <v>15.00204697330559</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.302975773761</v>
+        <v>1221.324840049604</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3404588333497</v>
+        <v>1221.324840049604</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0747602265992</v>
+        <v>863.0591414428535</v>
       </c>
       <c r="E5" t="n">
-        <v>614.0747602265992</v>
+        <v>863.0591414428535</v>
       </c>
       <c r="F5" t="n">
         <v>452.0732366532459</v>
@@ -4562,55 +4562,55 @@
         <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746978</v>
+        <v>277.9807166746973</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030762</v>
+        <v>521.2049416030751</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709177</v>
+        <v>823.5081935709165</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079239</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1621.822248332756</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837883</v>
+        <v>1586.99497559823</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837883</v>
+        <v>1586.99497559823</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837883</v>
+        <v>1333.357011269593</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837883</v>
+        <v>1333.357011269593</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837883</v>
+        <v>1333.357011269593</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.902815837883</v>
+        <v>1333.357011269593</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.902815837883</v>
+        <v>1221.324840049604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330.8774982082533</v>
+        <v>291.240337940861</v>
       </c>
       <c r="C6" t="n">
-        <v>330.8774982082533</v>
+        <v>291.240337940861</v>
       </c>
       <c r="D6" t="n">
-        <v>330.8774982082533</v>
+        <v>291.240337940861</v>
       </c>
       <c r="E6" t="n">
-        <v>171.6400432027978</v>
+        <v>132.0028829354054</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027978</v>
+        <v>132.0028829354054</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675766</v>
+        <v>132.0028829354054</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787525</v>
+        <v>61.66788464787519</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189976</v>
+        <v>399.8722171189974</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223497</v>
+        <v>668.6238185223493</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352476</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228318</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
         <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703773</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699368</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.309378699368</v>
+        <v>1205.559652423527</v>
       </c>
       <c r="U6" t="n">
-        <v>1030.194236654925</v>
+        <v>977.444510379083</v>
       </c>
       <c r="V6" t="n">
-        <v>795.042128423182</v>
+        <v>742.2924021473402</v>
       </c>
       <c r="W6" t="n">
-        <v>706.8531339932753</v>
+        <v>742.2924021473402</v>
       </c>
       <c r="X6" t="n">
-        <v>706.8531339932753</v>
+        <v>534.4409019418074</v>
       </c>
       <c r="Y6" t="n">
-        <v>499.0928352283213</v>
+        <v>326.6806031768535</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="C7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="D7" t="n">
-        <v>213.0185632254544</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306124</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574683</v>
+        <v>64.24066662574674</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834797</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195364</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934714</v>
+        <v>342.310156193471</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Q7" t="n">
-        <v>363.1352026377901</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="R7" t="n">
-        <v>363.1352026377901</v>
+        <v>258.8998037808493</v>
       </c>
       <c r="S7" t="n">
-        <v>363.1352026377901</v>
+        <v>258.8998037808493</v>
       </c>
       <c r="T7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="U7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="V7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="W7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="X7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.1352026377901</v>
+        <v>34.55805631675764</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1649.725331578662</v>
+        <v>709.7774282876987</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.762814638251</v>
+        <v>709.7774282876987</v>
       </c>
       <c r="D8" t="n">
-        <v>922.4971160315004</v>
+        <v>351.5117296809482</v>
       </c>
       <c r="E8" t="n">
-        <v>536.7088634332561</v>
+        <v>351.5117296809482</v>
       </c>
       <c r="F8" t="n">
-        <v>125.7229586436485</v>
+        <v>344.5662289317448</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301913</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794704</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794704</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794704</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642784</v>
+        <v>1473.38251852459</v>
       </c>
       <c r="X8" t="n">
-        <v>2036.325171642784</v>
+        <v>1099.91676026351</v>
       </c>
       <c r="Y8" t="n">
-        <v>2036.325171642784</v>
+        <v>709.7774282876987</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.9573223213125</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="C9" t="n">
-        <v>375.5042930401855</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D9" t="n">
-        <v>226.5698833789342</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E9" t="n">
-        <v>226.5698833789342</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309181</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1432.552065309181</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>1197.399957077438</v>
+        <v>981.8452551586024</v>
       </c>
       <c r="W9" t="n">
-        <v>943.1626003492363</v>
+        <v>727.6078984304008</v>
       </c>
       <c r="X9" t="n">
-        <v>735.3111001437035</v>
+        <v>519.756398224868</v>
       </c>
       <c r="Y9" t="n">
-        <v>549.9573223213125</v>
+        <v>519.756398224868</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="U10" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>526.565882642405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
         <v>235.5284942057738</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206044</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926976</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803618</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979687</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235172</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258113</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602311</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508442</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,7 +6467,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,58 +7163,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>6.922421112516645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7713260795989</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>126.7126101431584</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.9994244361429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>32.8926045706001</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644593</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>25.74504007796168</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520044</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025312</v>
+        <v>270592.3620253118</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231933</v>
+        <v>115410.0540231949</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742655</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881965</v>
+        <v>62913.63765881959</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197495</v>
+        <v>27875.25362197546</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26445,16 +26445,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936813</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-270045.8518751622</v>
       </c>
       <c r="C6" t="n">
-        <v>103200.8962204001</v>
+        <v>103200.8962204004</v>
       </c>
       <c r="D6" t="n">
-        <v>282021.2899234634</v>
+        <v>282021.2899234617</v>
       </c>
       <c r="E6" t="n">
-        <v>-72895.04161805953</v>
+        <v>-72929.7795434938</v>
       </c>
       <c r="F6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="G6" t="n">
-        <v>528548.1659562063</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="H6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="I6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="J6" t="n">
-        <v>479483.2212276609</v>
+        <v>479448.4833022256</v>
       </c>
       <c r="K6" t="n">
-        <v>465634.5282973858</v>
+        <v>465599.7903719503</v>
       </c>
       <c r="L6" t="n">
-        <v>500672.912334231</v>
+        <v>500638.1744087941</v>
       </c>
       <c r="M6" t="n">
-        <v>371401.7854046077</v>
+        <v>371367.0474791721</v>
       </c>
       <c r="N6" t="n">
-        <v>528548.1659562057</v>
+        <v>528513.42803077</v>
       </c>
       <c r="O6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="P6" t="n">
-        <v>528548.165956206</v>
+        <v>528513.4280307702</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950612</v>
+        <v>758.899629295061</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594708</v>
+        <v>431.9757039594704</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821567</v>
+        <v>210.4296883821565</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262289</v>
+        <v>94.81103524262414</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039901</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.1392527666941</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.663195139797065e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666944</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.1392527666941</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>303.1332868360719</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.4793217556701563</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,25 +27461,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.96423600605367</v>
+        <v>40.51015860120987</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625595</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>246.4945374040917</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425918</v>
+        <v>23.94240680425924</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>275.3260891482641</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>131.4473210662348</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937517</v>
+        <v>43.32085084937519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>164.3878786753119</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304057</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.29414912736176</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>42.86142077561324</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>330.3405103591269</v>
+        <v>113.6856727739117</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>44.09027994563203</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>22.18245573313732</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>66.22175214206379</v>
+        <v>66.50969266293646</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.301146286410376e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.598573539425463e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28798,13 +28798,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29758,13 +29758,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085671</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429363</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520267</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511774</v>
+        <v>481.4474502511773</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.7030533968095</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610694</v>
+        <v>544.3712888610693</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191487</v>
+        <v>514.0343715191486</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.7164434860961</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634654</v>
       </c>
       <c r="R5" t="n">
         <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489898</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920253</v>
@@ -31361,43 +31361,43 @@
         <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062483</v>
+        <v>56.20152915062481</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.4276051721887</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658083</v>
+        <v>413.6002979658082</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468664</v>
+        <v>424.5470671468663</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374451</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.7072835872488</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947719</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378878</v>
+        <v>6.579516597378876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635557</v>
+        <v>96.75348224635555</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
         <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528487</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
         <v>165.5147650514998</v>
@@ -31467,16 +31467,16 @@
         <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054707</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
         <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830798</v>
+        <v>5.847259438830796</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656348</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>391.9250669264616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,22 +33497,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,22 +33734,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,13 +34223,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,13 +34366,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070462</v>
+        <v>167.9900634070461</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.6810352811901</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.3568201695368</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644785</v>
+        <v>314.9582252644784</v>
       </c>
       <c r="O5" t="n">
-        <v>283.936160097462</v>
+        <v>283.9361600974619</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308266</v>
+        <v>207.4834477308265</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092685</v>
+        <v>27.38366498092682</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.4662640437899</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930007</v>
+        <v>245.7813799930006</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729186</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872815</v>
+        <v>68.3862901687281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554461</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501469</v>
+        <v>68.57507023501464</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230867</v>
+        <v>75.59399159230861</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761556</v>
+        <v>81.73343028761548</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569188</v>
+        <v>54.97578017569182</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235222</v>
+        <v>27.78676100235216</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.402257299905</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37145,22 +37145,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37242,7 +37242,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37382,22 +37382,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,13 +37871,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,13 +38014,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
